--- a/Guías/Rubricas.xlsx
+++ b/Guías/Rubricas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\MIAD\06_Gerencia de Proyectos de Analytics\Proyecto\Guías\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\Git\Proyecto Despliegue\MIAD---PROYECTO---DESPLIEGUE-DE-SOLUCIONES\Guías\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F43CC5-834C-4462-B810-87A212D56949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526E60B-BA2C-4239-BA20-D6805FF79897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica" sheetId="7" r:id="rId1"/>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
-  <si>
-    <t>Dimensiones</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Insuficiente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Medio</t>
   </si>
@@ -50,174 +41,152 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>Completitud del Formato</t>
-  </si>
-  <si>
-    <t>La carta del proyecto incluye la diligencia clara y coherente entre todos los campos que permite una idealización del proyecto: su relevancia alcance, métricas, involucrados y beneficios esperados</t>
-  </si>
-  <si>
-    <t>Necesidades de la compañía: contexto y planteamiento del problema</t>
-  </si>
-  <si>
-    <t>El enunciado responde cada una de las preguntas (Qué se requiere hacer, quién necesita participar y por qué dedicar los recursos). 
-- Identifica los beneficios esperados.
-- Se presenta un contexto de la compañía articulado con el problema identificado, donde se evidencia la relevancia del desarrollo del proyecto.
-- Se identifican los stakeholders, afectados positiva y negativamente por el proyecto.</t>
-  </si>
-  <si>
-    <t>Métricas:
-Definición de criterios de éxito</t>
-  </si>
-  <si>
-    <t>-Se proponen y justifican las métricas a evaluar en el desempeño del proyecto, tanto en la dimensión de negocio, como de desarrollo o monitoreo del mismo.
-- las métricas propuestas son coherentes y medibles con el problema identificado.
-- Se proponen y explican aquellas métricas posibles de seguimiento que servirán para desarrollar el monitoreo y control.</t>
-  </si>
-  <si>
-    <t>Identificación de recursos y limitantes</t>
-  </si>
-  <si>
-    <t>Planificación inicial de actividades</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
     <t xml:space="preserve">¿ Quien ? </t>
   </si>
   <si>
-    <t>Rúbrica</t>
-  </si>
-  <si>
     <t>¿ Cuándo ?</t>
   </si>
   <si>
-    <t>Se proponen y justifican los criterios de éxito de la entrega o cierre del proyecto que son coherentesy medibles con el problema identificado. 
-Se proponen y explican aquellos posibles criterios de seguimiento que sertivirán para desarrollar el monitoreo y control.</t>
-  </si>
-  <si>
-    <t>Mateo</t>
-  </si>
-  <si>
-    <t>- Se identifican los recursos inicialmente considerados para el desarrollo del proyecto, tanto en recursos humanos, como de datos y tecnológicos.
-- Se incluye una explicación de la carta de las posibles fuentes dónde se adquirirán los datos. 
-- Se identifican las limitanes en el proceso de adquisición.</t>
-  </si>
-  <si>
-    <t>Métricas:
-Identificación de desempeño del proyecto
-(Negocio y proceso)</t>
-  </si>
-  <si>
     <t>Lizeth</t>
   </si>
   <si>
-    <t>Dayan</t>
-  </si>
-  <si>
-    <t>Camilo
-Dayan</t>
-  </si>
-  <si>
-    <t>octubre 18
-(sábado)</t>
-  </si>
-  <si>
-    <t>octubre 16
-(jueves)</t>
-  </si>
-  <si>
-    <t>octubre 17
-(viernes)</t>
-  </si>
-  <si>
-    <t>La carta del proyefcto incluye la diligencia desarticulada entre los campos lo que le impide la conceptualización del proyecto en cuanto: su relevancia alcance, métricas involucrados y beneficios esperados</t>
-  </si>
-  <si>
-    <t>La carta del proyecto incluye la diligencia algunas veces desarticulada entre los campos:  su relevancia, alcance, métricas, involucrados y beneficios esperados.</t>
-  </si>
-  <si>
-    <t>El enunciado omite varias de las respuestas a cada una de las preguntas (qué se requiere hacer, para quién, quién necesita participar y por qué dedicar los recursos).
-Carece de una identificación de los beneficios esperados
-Carece de contexto de la compañía articulado con el problema a abordar</t>
-  </si>
-  <si>
-    <t>Carece de una propuesta de los criterios de éxito de entrega o cierre del proyecto</t>
-  </si>
-  <si>
-    <t>Se proponen las métricas a evaluar en el desempeño del proyecto, en una o en las dos dimensiones: de negocio o desarrollo o monitoreo del mismo.
-Las métricas propuestas no son coherentes con el planteamiento del problema.
-No se presenta justificación de las métricas presentadas.</t>
-  </si>
-  <si>
-    <t>Carece de una identificación de los recursos inicialmente considerados para el desarrollo del proyecto.
-Se omite una explicación del cómo y dónde se espera que se adquieran los datos así como de los limitantes</t>
-  </si>
-  <si>
     <t>Guía</t>
   </si>
   <si>
     <t>Guía 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Carece de un cronograma inicial de actividades coherente con los grupos de procesos de la administración de proyectos. </t>
-  </si>
-  <si>
-    <t>El enunciado omite alguna de las respuestas a cada una de las preguntas (qué se requiere hacer, para quién, quién necesita participar y por qué dedicar los recursos).
-Carece de una identificación de los beneficios esperados.
-Se presenta un contexto de la compañía no evidentemente articulado con el problema identificado donde no se evidencia la relevancia del desarrollo del proyecto.</t>
-  </si>
-  <si>
-    <t>Se proponen sin justificación los criterios de éxito de entrega o cierre del proyecto, no siendo coherentes con el planteamiento del problema.</t>
-  </si>
-  <si>
-    <t>Se proponen las métricas a evaluar el desempaño del proyecto, solo en una de las dimensiones de negocio o de desarrollamiento o monitoreo del mismo. 
-No se presenta justificación de las métricas presentadas o es una justificación vaga.
-Las métricas propuestas son coherentes  con el planteamiento del problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se identifican los recursos inicialmente considerados para el desarrollo del proyecto, omitiendo más de una de las áreas de recursos humanos, de datos o tecnológicos.
-Se incluye una explicación insuficiente de las posibles fuentes de datos en relación con la oportunidad de negocio identificada. 
-Se incluye una explicación insuficiente de las limitantes en el proceso de adquisición de los datos. </t>
-  </si>
-  <si>
-    <t>Se propone un cronograma incial de actividades que no refleja con claridad la relación de los grupos de procesos de la administración de proyectos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La carta proyecto incluye la diligencia de la mayoría de los campos que permite una idealización parcial del proyecto: su relevancia, alcance, métricas, involucrados y beneficios esperados. </t>
-  </si>
-  <si>
-    <t>El enunciado responde a cada una de las preguntas (qué se requiere hacer, para quién, quién necesita participar y por qué dedicar los recursos). 
-Identifica los beneficios esperados. 
-Se presenta un contexto de la compañía no evidentemente articulado con el problema identificado donde no se evidencia la relevancia al desarrollo del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se proponen sin justificación los criterios de éxito, de entrega o cierre del proyecto, que sean coherentes con el planteamiento del problema. </t>
-  </si>
-  <si>
-    <t>Se proponen y se justifican las métricas para evaluar el desempeño del proyecto, tanto en la dimensión de negocio como de desarrollo o monitoreo del mismo. 
-Las métricas propuestas son coherentes con el planteamiento del problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se identifican los recursos inicialmente considerados para el desarrllo del proyecto, omitiendo algunas de las áreas de recursos humanos, datos o tecnológicos. 
-Se incluye una explicación básica de las posibles fuentes de datos en relación con la oportunidad de negocio identificada. 
-Se incluye una explicación vaga de las limitantes del proceso de adquisición de los datos. </t>
-  </si>
-  <si>
-    <t>Se inclue un cronograma inicial de actividades que refleja la relación de los grupos de procesos de administración de proyectos. 
-Este cronograma no contempla con claridad las condiciones de recursos y limitantes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se incluye un cronograma inicial de actividades consideradas para el desarrollo del proyecto que resulta comprensible dada las condiciones de recursos y limitantes.
-Se reporta la persona responsable de cada proceso, encargada de gestionar que se cumpla lo planeado en estos procesos. </t>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Problema que 
+abordarán y su 
+contexto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregunta de 
+negocio y alcance 
+del proyecto</t>
+  </si>
+  <si>
+    <t>Descripción de 
+conjuntos de 
+datos a emplear</t>
+  </si>
+  <si>
+    <t>Exploración de 
+datos</t>
+  </si>
+  <si>
+    <t>Maqueta del 
+prototipo</t>
+  </si>
+  <si>
+    <t>Reporte de trabajo 
+en equipo.</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>El problema no está adecuadamente definido.
+[0 – 8 puntos]</t>
+  </si>
+  <si>
+    <t>El problema se define, pero no es clara su justificación o su relevancia dentro del contexto.
+[9 – 11 puntos]</t>
+  </si>
+  <si>
+    <t>Se identifica adecuadamente el problema, se justifica su relevancia y por qué el modelo propuesto es útil en el contexto del problema considerado.
+[12 – 15 puntos]</t>
+  </si>
+  <si>
+    <t>Se identifica adecuadamente la pregunta de negocio a resolver y el alcance esperado del proyecto.
+[12 – 15 puntos]</t>
+  </si>
+  <si>
+    <t>La pregunta de negocio se define, pero no es clara su relación con el problema, su contexto o el alcance del proyecto.
+[9 – 11 puntos]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La pregunta de negocio y el alcance del proyecto no están  adecuadamente definidos.
+[0 – 8 puntos] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se describen adecuadamente los conjuntos de datos a emplear.
+[8 – 10 puntos]</t>
+  </si>
+  <si>
+    <t>Se describen parcialmente los conjuntos de datos a emplear.
+[6 - 7 puntos]</t>
+  </si>
+  <si>
+    <t>La descripción de los datos es insuficiente o los datos no se incluyen en la entrega. 
+[0 – 5 puntos]</t>
+  </si>
+  <si>
+    <t>Se realiza una exploración de datos completa e informativa de acuerdo a la pregunta de negocio.
+[24 – 30 puntos]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza una exploración de datos amplia, pero no es suficiente el análisis para la pregunta de negocio considerada.
+[18 –23 puntos] </t>
+  </si>
+  <si>
+    <t>La exploración de datos es limitada o los datos o elcódigo asociado no se incluyen en la entrega.
+[0 – 17 puntos]</t>
+  </si>
+  <si>
+    <t>La maqueta es adecuada para resolver la pregunta de negocio y es adecuada al contexto.
+[16 – 20 puntos]</t>
+  </si>
+  <si>
+    <t>La maqueta es adecuada resuelve parcialmente la pregunta de negocio o no es del todo adecuada al contexto.
+[12 – 15 puntos]</t>
+  </si>
+  <si>
+    <t>La maqueta no es adecuada para el problema o no se incluye maqueta. 
+[0 – 11 puntos]</t>
+  </si>
+  <si>
+    <t>El reporte de trabajo en equipo describe completamente las actividades de cada miembro del equipo y la distribución es adecuada y soportada.
+[8 - 10 puntos]</t>
+  </si>
+  <si>
+    <t>El reporte de trabajo en equipo describe completamente las actividades de cada miembro del equipo, pero la distribución no es adecuada. 
+[6 – 7 puntos]</t>
+  </si>
+  <si>
+    <t>El reporte de trabajo en equipo describe parcialmente las actividades de los miembros del equipo.
+[0 – 5 puntos]</t>
+  </si>
+  <si>
+    <t>Dayan
+Camilo</t>
+  </si>
+  <si>
+    <t>Dayan
+Camilo
+Mateo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -270,19 +239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -312,43 +268,43 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,218 +609,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="60.6328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="60.6328125" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="35.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Guías/Rubricas.xlsx
+++ b/Guías/Rubricas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\Git\Proyecto Despliegue\MIAD---PROYECTO---DESPLIEGUE-DE-SOLUCIONES\Guías\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526E60B-BA2C-4239-BA20-D6805FF79897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B5672-B1B5-41DE-B2FA-E862EDB904B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rubrica!$A$1:$G$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Medio</t>
   </si>
@@ -171,13 +174,87 @@
     <t>Dayan
 Camilo
 Mateo</t>
+  </si>
+  <si>
+    <t>Guía 2</t>
+  </si>
+  <si>
+    <t>Resumen sobre el problema</t>
+  </si>
+  <si>
+    <t>Modelos desarrollados y su evaluación</t>
+  </si>
+  <si>
+    <t>Observaciones y conclusiones sobre los modelos</t>
+  </si>
+  <si>
+    <t>Tablero Desarrollado</t>
+  </si>
+  <si>
+    <t>Reporte de trabajo en equipo</t>
+  </si>
+  <si>
+    <t>Se identifica adecuadamente el problema, su contexto, pregunta de negocio, alcance y datos a emplear. 
+[8 – 10 puntos]</t>
+  </si>
+  <si>
+    <t>Se describe claramente el proceso de entrenamiento de los modelos, la selección de características y se evalúan adecuadamente los modelos con métricas apropiadas.
+[28 – 35 puntos]</t>
+  </si>
+  <si>
+    <t>Se destacan aspectos relevantes del comportamiento de los modelos y se concluye apropiadamente.
+[8 – 10 puntos]</t>
+  </si>
+  <si>
+    <t>El tablero cumple con los objetivos planteados en la pregunta de negocio y alcance del proyecto, incluye las predicciones del modelo y su interfaz es adecuada para el usuario.
+[28 – 35 puntos]</t>
+  </si>
+  <si>
+    <t>El reporte de trabajo en equipo describe completamente las actividades de cada miembro del equipo y la distribución es adecuada y soportada.
+[8 – 10 puntos]</t>
+  </si>
+  <si>
+    <t>No se identifican dos o más de elementos solicitados.
+[0 – 5 puntos]</t>
+  </si>
+  <si>
+    <t>No es claro cómo se desarrolla el modelo, la selección de características o su evaluación.
+[0 – 20 puntos]</t>
+  </si>
+  <si>
+    <t>No se destacan aspectos relevantes de los modelos o se hace de manera muy limitada.
+[0 – 5 puntos]</t>
+  </si>
+  <si>
+    <t>El tablero no cumple con los lineamientos de la pregunta de negocio y alcance del proyecto, o no incluye predicciones del modelo.
+[0 – 20 puntos]</t>
+  </si>
+  <si>
+    <t>La descripción del proceso de entrenamiento de modelos es parcial, su evaluación es limitada.
+[21 – 27 puntos]</t>
+  </si>
+  <si>
+    <t>Se identifican parcialmente el problema, su contexto, pregunta de negocio, alcance y datos a emplear, o falta alguno por identificar.
+[6 – 7 puntos]</t>
+  </si>
+  <si>
+    <t>Se destacan algunos aspectos de los modelos, pero quedan faltando otros aspectos importantes.
+[6 – 7 puntos]</t>
+  </si>
+  <si>
+    <t>El tablero sigue los lineamientos de la pregunta de negocio y alcance del proyecto, incluye predicciones del modelo, pero su interfaz es limitada o poco adecuada para su uso.
+[21 – 27 puntos]</t>
+  </si>
+  <si>
+    <t>El reporte de trabajo en equipo describe completamente las actividades de cada miembro del equipo, pero la distribución no es adecuada.
+[6 – 7 puntos]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +270,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -249,24 +332,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,21 +347,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -301,11 +362,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,19 +689,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
-  <dimension ref="A1:J7"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="35.6328125" customWidth="1"/>
+    <col min="3" max="4" width="35.6328125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
@@ -631,16 +713,16 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -651,19 +733,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -672,17 +754,19 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -691,17 +775,19 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -710,17 +796,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -729,17 +817,19 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -748,28 +838,130 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
-  </mergeCells>
+  <autoFilter ref="A1:G12" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Guía 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Guías/Rubricas.xlsx
+++ b/Guías/Rubricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\Git\Proyecto Despliegue\MIAD---PROYECTO---DESPLIEGUE-DE-SOLUCIONES\Guías\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B5672-B1B5-41DE-B2FA-E862EDB904B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707E9A8-E322-46E0-8223-0D58DFD59D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +275,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,21 +382,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,11 +706,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,13 +718,13 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="35.6328125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -725,14 +739,14 @@
       <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -753,7 +767,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -774,7 +788,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -795,7 +809,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -816,7 +830,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -837,7 +851,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -858,7 +872,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -875,13 +889,15 @@
         <v>42</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="17">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -894,9 +910,11 @@
         <v>43</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="17">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -913,28 +931,32 @@
         <v>44</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="17">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="17">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -951,13 +973,15 @@
         <v>46</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="17">
+        <v>45969</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G12" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Guía 1"/>
+        <filter val="Guía 2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Guías/Rubricas.xlsx
+++ b/Guías/Rubricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\Git\Proyecto Despliegue\MIAD---PROYECTO---DESPLIEGUE-DE-SOLUCIONES\Guías\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707E9A8-E322-46E0-8223-0D58DFD59D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D680A08-F4F6-4EEC-9165-CDB96FAE88C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rubrica" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rubrica!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rubrica!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Medio</t>
   </si>
@@ -248,6 +248,97 @@
   <si>
     <t>El reporte de trabajo en equipo describe completamente las actividades de cada miembro del equipo, pero la distribución no es adecuada.
 [6 – 7 puntos]</t>
+  </si>
+  <si>
+    <t>Guía 3</t>
+  </si>
+  <si>
+    <r>
+      <t>Contexto del problema
+Pregunta de Negocio y alcance del proyecto
+Breve descripción de los conjuntos de datos a emplear
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resalte posibles cambios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] con respecto a la primera entrega</t>
+    </r>
+  </si>
+  <si>
+    <t>Descripción del tablero desarrollado y la funcionalidad que éste ofrece</t>
+  </si>
+  <si>
+    <t>Repositorios con todo el código</t>
+  </si>
+  <si>
+    <t>Accesibles y con evidencia sobre el uso de repositorios por parte de los miembros del equipo</t>
+  </si>
+  <si>
+    <t>Fuentes de los modelos desarrollados</t>
+  </si>
+  <si>
+    <t>Fuentes del tablero desarrollado</t>
+  </si>
+  <si>
+    <t>Pantallazos de experimentos registrados en MLFlow</t>
+  </si>
+  <si>
+    <r>
+      <t>En una máquina de AWS EC2 (debe ser visible el usuario e IP de la máquina EC2, y la IP en MLFlow). Mantenga su máquina en EC2 con MLFlow detenida (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no la termine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Máximo 1 página</t>
+  </si>
+  <si>
+    <t>Recomendaciones</t>
+  </si>
+  <si>
+    <t>1. El objetivo del proyecto es lograr un buen producto, bien soportado y claramente desarrollado.
+ Justifique adecuadamente sus decisiones, observaciones y conclusiones.
+ 2. Sea conciso y eficiente con el espacio. En un buen reporte cada gráfica y afirmación importa.
+ 3. Es un trabajo en equipo. Defina los ítems de trabajo, asígnelos entre los miembros del equipo, defina
+ fechas de entrega y revisión interna. Discuta los resultados, observaciones y conclusiones. Priorice
+ tareas y resultados a incluir.
+ 4. Empiece a trabajar prontamente y discuta con el equipo de tutores su avance y resultados.</t>
   </si>
 </sst>
 </file>
@@ -255,9 +346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +378,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,11 +442,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,12 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,10 +501,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,53 +828,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:G9"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.6328125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" customWidth="1"/>
+    <col min="3" max="4" width="35.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="60.36328125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="14.6328125" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -768,10 +892,10 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -789,10 +913,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -810,10 +934,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -831,10 +955,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -852,10 +976,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -870,123 +994,265 @@
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17">
+      <c r="F8" s="13"/>
+      <c r="G8" s="15">
         <v>45969</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17">
+      <c r="F9" s="13"/>
+      <c r="G9" s="15">
         <v>45969</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17">
+      <c r="F10" s="13"/>
+      <c r="G10" s="15">
         <v>45969</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17">
+      <c r="F11" s="13"/>
+      <c r="G11" s="15">
         <v>45969</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:7" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17">
+      <c r="F12" s="13"/>
+      <c r="G12" s="15">
         <v>45969</v>
       </c>
     </row>
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="19">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="19">
+        <v>45971</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
+  <autoFilter ref="A1:G22" xr:uid="{2BD1BA79-2715-4BEA-95DC-58DC9B8F04DF}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Guía 2"/>
+        <filter val="Guía 3"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Guías/Rubricas.xlsx
+++ b/Guías/Rubricas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA ANALIST\Git\Proyecto Despliegue\MIAD---PROYECTO---DESPLIEGUE-DE-SOLUCIONES\Guías\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D680A08-F4F6-4EEC-9165-CDB96FAE88C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC2C41-B2D9-4A14-8AB7-27F3B3C7FDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica" sheetId="7" r:id="rId1"/>
@@ -334,11 +334,9 @@
   <si>
     <t>1. El objetivo del proyecto es lograr un buen producto, bien soportado y claramente desarrollado.
  Justifique adecuadamente sus decisiones, observaciones y conclusiones.
- 2. Sea conciso y eficiente con el espacio. En un buen reporte cada gráfica y afirmación importa.
- 3. Es un trabajo en equipo. Defina los ítems de trabajo, asígnelos entre los miembros del equipo, defina
- fechas de entrega y revisión interna. Discuta los resultados, observaciones y conclusiones. Priorice
- tareas y resultados a incluir.
- 4. Empiece a trabajar prontamente y discuta con el equipo de tutores su avance y resultados.</t>
+2. Sea conciso y eficiente con el espacio. En un buen reporte cada gráfica y afirmación importa.
+3. Es un trabajo en equipo. Defina los ítems de trabajo, asígnelos entre los miembros del equipo, defina fechas de entrega y revisión interna. Discuta los resultados, observaciones y conclusiones. Priorice tareas y resultados a incluir.
+4. Empiece a trabajar prontamente y discuta con el equipo de tutores su avance y resultados.</t>
   </si>
 </sst>
 </file>
@@ -459,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,22 +505,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,10 +823,10 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -1102,7 +1094,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1112,38 +1104,38 @@
         <v>57</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1151,93 +1143,93 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>45971</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>45971</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>45971</v>
       </c>
     </row>
